--- a/docs/sample_form_data.xlsx
+++ b/docs/sample_form_data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.g\IdeaProjects\ILT_Training\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85667ED-CA5A-4BCF-88E7-293A1CEE2246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F90821-9FDE-4570-833E-5185D4E9A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1830" windowWidth="16630" windowHeight="7360" xr2:uid="{663C9F0A-D5F4-42A7-8896-FAD880B2697E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{663C9F0A-D5F4-42A7-8896-FAD880B2697E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>First Name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>John</t>
   </si>
   <si>
-    <t>johngioia@gmail.com</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -139,15 +136,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>English, Spanish</t>
-  </si>
-  <si>
     <t>Reading, Music</t>
   </si>
   <si>
-    <t>672 Walnut Drive</t>
-  </si>
-  <si>
     <t>Rajasthan</t>
   </si>
   <si>
@@ -163,16 +154,47 @@
     <t>henks@gmail.com</t>
   </si>
   <si>
-    <t>Make</t>
-  </si>
-  <si>
     <t>Jun</t>
+  </si>
+  <si>
+    <t>8 Boulder Road</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>jgsup@gmail.com</t>
+  </si>
+  <si>
+    <t>English, Social Studies</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>No Pass</t>
+  </si>
+  <si>
+    <t>Passes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,27 +552,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A328A58-5E4A-46C3-AC3E-6F584B26A9E4}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="5.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="7.08984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.90625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.1796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +612,11 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -631,8 +656,11 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -640,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -652,39 +680,42 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>1958</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
       </c>
       <c r="E4">
         <v>5107109561</v>
@@ -693,54 +724,113 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>1962</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5102330222</v>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1980</v>
       </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
       <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>5102330222</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>1985</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -749,8 +839,9 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{960A0494-5BF2-4701-9C76-149C2CD03E70}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{36BDADB1-A1F2-414C-8A83-44AB23B2A6B5}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{8AA18BEB-5D2F-4551-BE96-ED5D673537D1}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{8A097DCB-B183-483D-82D9-44555F2CE999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>